--- a/데이터셋 현황(10.28).xlsx
+++ b/데이터셋 현황(10.28).xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
-  <si>
-    <t>3/2/1</t>
-  </si>
-  <si>
-    <t>0/11/10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>False / True / Unknown</t>
   </si>
@@ -42,24 +36,12 @@
     <t>real</t>
   </si>
   <si>
-    <t>7/18</t>
-  </si>
-  <si>
-    <t>1/0/0</t>
-  </si>
-  <si>
     <t>02_10</t>
   </si>
   <si>
     <t>영상 제목</t>
   </si>
   <si>
-    <t>10/0/9</t>
-  </si>
-  <si>
-    <t>3/0/2</t>
-  </si>
-  <si>
     <t>레이블 세그멘트</t>
   </si>
   <si>
@@ -76,32 +58,6 @@
   </si>
   <si>
     <r>
-      <t>(학습에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 사용된 )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>v</t>
     </r>
     <r>
@@ -154,6 +110,96 @@
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>eal</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250620_151919</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250623_161117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1961 / 34 / 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>931 / 84 / 22</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250620_162948</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250623_104746</t>
+  </si>
+  <si>
+    <t>20250623_123029</t>
+  </si>
+  <si>
+    <t>2999 / 0 / 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>127 / 2225 / 294</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3029 / 0 / 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250623_140925</t>
+  </si>
+  <si>
+    <t>20250623_141140</t>
+  </si>
+  <si>
+    <t>20250623_141831</t>
+  </si>
+  <si>
+    <t>20250623_143402</t>
+  </si>
+  <si>
+    <r>
       <t>t</t>
     </r>
     <r>
@@ -164,8 +210,38 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>est.py에 사용된 이미지</t>
-    </r>
+      <t>est.py 사용</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train.py 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250620_162948</t>
+  </si>
+  <si>
+    <t>20250623_123029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250623_123923</t>
+  </si>
+  <si>
+    <t>20250623_124731</t>
+  </si>
+  <si>
+    <t>20250623_130244</t>
+  </si>
+  <si>
+    <t>20250623_131312</t>
+  </si>
+  <si>
+    <t>20250623_131629</t>
+  </si>
+  <si>
+    <t>train.py 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -185,15 +261,117 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20250620_151919</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20250623_161117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1961 / 34 / 6</t>
+    <t>이미지 추출 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 중</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250623_132003</t>
+  </si>
+  <si>
+    <t>20250623_132354</t>
+  </si>
+  <si>
+    <t>20250623_132936</t>
+  </si>
+  <si>
+    <t>20250623_133504</t>
+  </si>
+  <si>
+    <t>20250623_140612</t>
+  </si>
+  <si>
+    <t>20250623_140638</t>
+  </si>
+  <si>
+    <t>라벨링 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250623_140706</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>153 / 575 / 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>32 / 345 / 8</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3 / 89 / 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>93 / 1643 / 228</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>39 / 587 / 0</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -208,42 +386,180 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>931 / 84 / 22</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20250620_162948</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20250623_104746</t>
-  </si>
-  <si>
-    <t>20250623_123029</t>
-  </si>
-  <si>
-    <t>2999 / 0 / 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/18</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>127 / 2225 / 294</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3029 / 0 / 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -258,15 +574,225 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-      </rPr>
-      <t>/19</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>10</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -640,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,9 +1183,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -668,96 +1191,153 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,133 +1347,52 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1365,10 +1864,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,183 +1890,183 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="68" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="39"/>
+      <c r="C5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="68" t="s">
+      <c r="G5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="39"/>
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="68"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="D6" s="38"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="78">
-        <v>0</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="M6" s="24" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="68"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="39"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="78" t="s">
+      <c r="B9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>1</v>
+      <c r="D9" s="38"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
-      <c r="C10" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
@@ -1584,221 +2083,588 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="59"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="59"/>
+      <c r="C15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="16" t="s">
+      <c r="F16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="59"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="62"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="41"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="61" t="s">
+      <c r="F19" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="62"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="17" t="s">
+      <c r="F20" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="62"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="11" t="s">
+      <c r="F21" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="62"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F22" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="73"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="71"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="73"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="41"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="42"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="39"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="42"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="39"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="42"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="42"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="43"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="23"/>
+      <c r="F27" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="73"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="73"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="73"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="72"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="72"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="72"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="72"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="72"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="72"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+  <mergeCells count="62">
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B25:B38"/>
+    <mergeCell ref="C25:D38"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="C18:D23"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
@@ -1812,31 +2678,14 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="C18:D23"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
